--- a/data/trans_dic/P3A$yo-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A$yo-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,04; 66,47</t>
+          <t>53,4; 66,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,08; 94,57</t>
+          <t>85,92; 94,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,9; 78,95</t>
+          <t>70,89; 78,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,37; 77,46</t>
+          <t>66,95; 77,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,34; 93,89</t>
+          <t>88,16; 93,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,56; 84,87</t>
+          <t>78,62; 84,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,19; 80,98</t>
+          <t>71,92; 81,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,45; 92,03</t>
+          <t>86,18; 91,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,62; 85,86</t>
+          <t>80,73; 85,94</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,78; 71,71</t>
+          <t>56,92; 71,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,17; 94,51</t>
+          <t>86,45; 94,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,44; 85,9</t>
+          <t>75,16; 86,11</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,26; 91,64</t>
+          <t>83,2; 92,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,57; 97,81</t>
+          <t>92,41; 97,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,78; 95,24</t>
+          <t>90,08; 95,29</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,1; 81,36</t>
+          <t>71,88; 81,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,04; 93,84</t>
+          <t>88,67; 93,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,96; 86,56</t>
+          <t>81,22; 86,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>67,14; 76,56</t>
+          <t>67,83; 76,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,57; 95,53</t>
+          <t>86,54; 95,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,34; 89,54</t>
+          <t>79,25; 89,18</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,92; 44,26</t>
+          <t>13,69; 44,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>90,83; 94,79</t>
+          <t>90,83; 94,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,48; 69,44</t>
+          <t>36,8; 69,44</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>47,32; 66,75</t>
+          <t>47,57; 66,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>90,43; 93,24</t>
+          <t>90,35; 93,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>68,01; 80,23</t>
+          <t>67,01; 80,34</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que la persona entrevistada se ocupa principalmente de las tareas domésticas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>186588</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>264925</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>451513</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>166300; 206399</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>248852; 273352</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>426128; 474080</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>375996</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>471212</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>847208</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>347079; 403807</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>453998; 482940</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>812425; 875669</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>242148</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>311471</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>553619</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>226839; 256939</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>299787; 319515</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>535459; 570056</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>202930</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>430401</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>633330</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>177915; 223868</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>411274; 450102</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>592483; 678792</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>157093</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>247405</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>404498</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>148317; 164061</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>239133; 253393</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>393720; 416463</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>207574</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>235819</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>443393</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>193814; 220748</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>227944; 240866</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>427778; 457300</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>452810</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>769182</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1221992</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>423462; 478257</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>734978; 812568</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1167712; 1314159</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>295470</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>667162</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>962632</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>127098; 413387</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>651951; 678805</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>605873; 1143303</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4937</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>7164</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2120608</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3397577</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>5518185</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1645467; 2299797</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3352739; 3457073</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>4804174; 5760368</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>